--- a/data/income_statement/2digits/size/80_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/80_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>80-Security and investigation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>80-Security and investigation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>781889.12147</v>
+        <v>784268.37151</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>816299.4297699999</v>
+        <v>819784.5896000001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>967338.5858999999</v>
+        <v>969090.56301</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1062353.12272</v>
+        <v>1051342.73235</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1370592.68033</v>
+        <v>1367227.30129</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1412947.25598</v>
+        <v>1403881.87755</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1784661.19054</v>
+        <v>1761643.41785</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2384010.12123</v>
+        <v>2362187.46076</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2981451.7441</v>
+        <v>2937791.70659</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2402642.03222</v>
+        <v>2408561.62062</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2578002.73995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2590317.29044</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3012344.961</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>762558.7970399999</v>
+        <v>764817.4851</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>794476.72526</v>
+        <v>797961.6945900001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>908430.45921</v>
+        <v>910180.51534</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1027885.37779</v>
+        <v>1018837.28225</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1323941.37554</v>
+        <v>1320904.19875</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1349282.06769</v>
+        <v>1341928.85774</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1726890.14301</v>
+        <v>1704204.70956</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2304612.67656</v>
+        <v>2282810.74174</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2878489.533319999</v>
+        <v>2836455.07076</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2326738.06188</v>
+        <v>2332663.25872</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2501105.93497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2513138.12287</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2776879.693</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4091.00882</v>
+        <v>4211.5708</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>9853.779359999999</v>
@@ -1037,7 +953,7 @@
         <v>34787.05347</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5014.32496</v>
+        <v>3366.51891</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>1684.43086</v>
@@ -1046,145 +962,165 @@
         <v>7243.269230000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3546.35802</v>
+        <v>3604.67914</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>9931.05774</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>14625.69971</v>
+        <v>13892.10447</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>12501.91961</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15498.8231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15501.3231</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>175036.597</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>15239.31561</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11968.92515</v>
+        <v>11969.11565</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>24121.07322</v>
+        <v>24122.9942</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>29453.41997</v>
+        <v>29138.93119</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>44966.87393</v>
+        <v>44638.67168</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>56421.91905999999</v>
+        <v>54709.75058</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>54224.68951</v>
+        <v>53834.02915</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>69466.38692999999</v>
+        <v>69445.66128</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>88336.51107000001</v>
+        <v>87444.53135999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>63402.05073</v>
+        <v>63396.44229</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>61397.98188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>61677.84447</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>60428.671</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>385.51178</v>
+        <v>465.75702</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1214.04742</v>
+        <v>1237.50153</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1378.35817</v>
+        <v>1450.27276</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2196.1529</v>
+        <v>2358.81248</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1265.90401</v>
+        <v>1263.23148</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3664.21083</v>
+        <v>3519.61602</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4610.02067</v>
+        <v>4488.14108</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6654.43034</v>
+        <v>6401.735640000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11823.88866</v>
+        <v>11008.0689</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>7009.644200000001</v>
+        <v>6958.151199999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>21150.94249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21152.83558</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>32156.178</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>267.57141</v>
+        <v>322.03118</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>410.86074</v>
+        <v>434.31485</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>503.05638</v>
+        <v>574.97097</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1700.0237</v>
+        <v>1843.11098</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1119.98313</v>
+        <v>1117.41913</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3577.63858</v>
+        <v>3433.04377</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4061.889889999999</v>
+        <v>3955.88221</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6282.352690000001</v>
+        <v>6029.657990000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10017.95991</v>
+        <v>9208.418170000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6312.47484</v>
+        <v>6251.99883</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>20307.20676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20309.09985</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>25509.028</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>48.30009</v>
+        <v>74.08556</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>213.76513</v>
@@ -1196,31 +1132,36 @@
         <v>482.73681</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>123.87701</v>
+        <v>123.76848</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>30.39576</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>277.61125</v>
+        <v>261.4281</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>179.74614</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>685.1392</v>
+        <v>678.86118</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>565.07885</v>
+        <v>574.06186</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>579.2501600000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>6427.68</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>69.64028</v>
@@ -1232,7 +1173,7 @@
         <v>636.31327</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>13.39239</v>
+        <v>32.96469</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>22.04387</v>
@@ -1241,7 +1182,7 @@
         <v>56.17649000000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>270.51953</v>
+        <v>270.83077</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>192.33151</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>264.48557</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>219.47</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>781503.6096900001</v>
+        <v>783802.6144900001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>815085.38235</v>
+        <v>818547.0880700001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>965960.22773</v>
+        <v>967640.29025</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1060156.96982</v>
+        <v>1048983.91987</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1369326.77632</v>
+        <v>1365964.06981</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1409283.04515</v>
+        <v>1400362.26153</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1780051.16987</v>
+        <v>1757155.27677</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2377355.69089</v>
+        <v>2355785.72512</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2969627.85544</v>
+        <v>2926783.63769</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2395632.38802</v>
+        <v>2401603.46942</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2556851.79746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2569164.45486</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2980188.783</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>624168.9968300001</v>
+        <v>624628.8</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>670404.5666799999</v>
+        <v>671121.7588099999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>784644.58764</v>
+        <v>784218.2723200001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>857053.7172899999</v>
+        <v>847237.48248</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1121124.65631</v>
+        <v>1120756.42872</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1139280.33674</v>
+        <v>1141450.66058</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1473855.40157</v>
+        <v>1465255.98441</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2022506.09559</v>
+        <v>2008641.04224</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2611891.23319</v>
+        <v>2579755.07129</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2079182.17353</v>
+        <v>2087091.72622</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2214346.76865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2236912.91296</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2527850.385</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>45.43669999999999</v>
@@ -1361,10 +1317,10 @@
         <v>5875.03761</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>20905.69219</v>
+        <v>20571.44999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>15391.43193</v>
+        <v>13948.26494</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>6524.64198</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>6867.42608</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>90094.789</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>11727.06287</v>
+        <v>12069.77298</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>4080.64885</v>
+        <v>4260.35663</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>33225.17436</v>
+        <v>33169.85034</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>34733.09263</v>
+        <v>26442.61273</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>59165.89764</v>
+        <v>59078.48801</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>75388.25744</v>
+        <v>74991.97470999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>150958.71006</v>
+        <v>144124.96426</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>118128.75733</v>
+        <v>107950.66153</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>494077.77853</v>
+        <v>480116.19548</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>114972.27722</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>141868.0094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>121242.1227</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>258148.482</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>612140.6478100001</v>
+        <v>612257.74087</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>665224.07936</v>
+        <v>665761.56371</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>750486.8795299999</v>
+        <v>750115.88823</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>820734.0209199999</v>
+        <v>819967.6224100001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1056760.99815</v>
+        <v>1056480.18019</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1062500.19689</v>
+        <v>1065066.80346</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1311052.29577</v>
+        <v>1309286.62441</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1882687.46879</v>
+        <v>1879334.75344</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2101312.90048</v>
+        <v>2084581.48862</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1953678.79064</v>
+        <v>1961588.34333</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2062683.44051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2105875.47152</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2177163.86</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>255.84945</v>
@@ -1466,7 +1437,7 @@
         <v>166.41318</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1152.84973</v>
+        <v>393.49333</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>39.42563</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>2927.89266</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2443.254</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>157334.61286</v>
+        <v>159173.81449</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>144680.81567</v>
+        <v>147425.32926</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>181315.64009</v>
+        <v>183422.01793</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>203103.25253</v>
+        <v>201746.43739</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>248202.12001</v>
+        <v>245207.64109</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>270002.70841</v>
+        <v>258911.60095</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>306195.7683</v>
+        <v>291899.29236</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>354849.5953</v>
+        <v>347144.68288</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>357736.62225</v>
+        <v>347028.5664</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>316450.21449</v>
+        <v>314511.7432</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>342505.02881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>332251.5419</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>452338.398</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>116285.9994</v>
+        <v>118037.94596</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>117142.80032</v>
+        <v>120539.95893</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>141514.46253</v>
+        <v>144774.01675</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>175202.39892</v>
+        <v>173825.68652</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>212355.40239</v>
+        <v>209284.76277</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>224874.06303</v>
+        <v>216430.01782</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>265968.54978</v>
+        <v>239300.73769</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>306051.42467</v>
+        <v>298210.35828</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>343767.3574100001</v>
+        <v>333303.27559</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>294733.64379</v>
+        <v>292601.12541</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>337340.30075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>335533.44098</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>426130.094</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>50.2993</v>
@@ -1589,16 +1575,16 @@
         <v>44.61848000000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>169.75976</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>170.28675</v>
+        <v>6.206</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>171.73013</v>
+        <v>0.33626</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>121.1637</v>
+        <v>0.1518</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>932.5897699999999</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>82.60485</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>460.439</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>5154.3235</v>
@@ -1622,151 +1613,171 @@
         <v>11828.48512</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>13912.33776</v>
+        <v>11352.63288</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>24047.73526</v>
+        <v>23307.80744</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>22052.05338</v>
+        <v>21600.05974</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>35531.49184999999</v>
+        <v>19906.48478</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>31698.42675</v>
+        <v>31529.01002</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>36875.11843</v>
+        <v>36621.5301</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>37712.1519</v>
+        <v>37966.49922</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>66000.336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>66021.68427</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>94326.617</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>111081.3766</v>
+        <v>112833.32316</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>112435.83378</v>
+        <v>115832.99239</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>129014.59422</v>
+        <v>132274.14844</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>161156.36116</v>
+        <v>162339.35364</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>188263.04865</v>
+        <v>185932.33685</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>202652.24989</v>
+        <v>194829.95808</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>230266.77118</v>
+        <v>219388.04691</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>274181.26779</v>
+        <v>266681.012</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>306771.07528</v>
+        <v>296681.59369</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>256088.90212</v>
+        <v>253702.03642</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>271257.3599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>269429.15186</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>331343.038</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>41048.61346000001</v>
+        <v>41135.86853</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>27538.01535</v>
+        <v>26885.37033</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>39801.17756</v>
+        <v>38648.00118</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>27900.85361</v>
+        <v>27920.75087</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>35846.71762</v>
+        <v>35922.87832</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>45128.64537999999</v>
+        <v>42481.58312999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>40227.21851999999</v>
+        <v>52598.55467</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>48798.17062999999</v>
+        <v>48934.3246</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>13969.26484</v>
+        <v>13725.29081</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>21716.5707</v>
+        <v>21910.61779</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5164.728059999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-3281.89908</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>26208.304</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4374.717310000001</v>
+        <v>4590.895280000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4710.327139999999</v>
+        <v>4788.11253</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>7267.06474</v>
+        <v>8937.74101</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9871.266460000001</v>
+        <v>8566.36319</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7308.582969999999</v>
+        <v>6287.79741</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8128.474679999999</v>
+        <v>7302.148109999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>15774.59123</v>
+        <v>12185.68436</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18109.33354</v>
+        <v>17610.84959</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>27796.53331</v>
+        <v>26697.04642</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>42178.42072</v>
+        <v>42044.31212</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>50333.55553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>42722.27853</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>82316.50900000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>185.37886</v>
@@ -1787,7 +1798,7 @@
         <v>57.86156</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>133.17664</v>
+        <v>131.12396</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>234.34143</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>505.25274</v>
@@ -1826,7 +1842,7 @@
         <v>254.38569</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2510.62226</v>
+        <v>2497.53065</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>1707.40801</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>693.6993100000001</v>
+        <v>862.36437</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1064.90919</v>
+        <v>1117.43531</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1289.31406</v>
+        <v>1477.80014</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1833.60193</v>
+        <v>1658.30221</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1963.26833</v>
+        <v>1390.26862</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1569.48821</v>
+        <v>1005.73714</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1955.67738</v>
+        <v>1268.92727</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1538.14253</v>
+        <v>1461.93425</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2553.14924</v>
+        <v>2174.718</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4180.80595</v>
+        <v>4175.07935</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>12564.13034</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>12412.63324</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8197.433000000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.24306</v>
@@ -1910,46 +1936,51 @@
         <v>1.82369</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2.58219</v>
+        <v>2.50537</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>60.05347</v>
+        <v>18.15317</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>27.09166</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>26.091</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>140.79681</v>
+        <v>155.96694</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>137.38793</v>
+        <v>150.56072</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>696.0314199999999</v>
+        <v>699.1730799999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>115.75126</v>
+        <v>135.20995</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>143.9625</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>106.70748</v>
+        <v>103.31308</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>133.73819</v>
+        <v>16.46553</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2625.51168</v>
+        <v>2604.98617</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2261.02352</v>
+        <v>2194.15804</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>438.38239</v>
@@ -1957,35 +1988,40 @@
       <c r="M30" s="48" t="n">
         <v>1538.1488</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2288.625</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>105.0504</v>
+        <v>114.69506</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>210.84713</v>
+        <v>210.98131</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>84.73269999999999</v>
+        <v>84.07013000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>123.96133</v>
+        <v>123.49276</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>117.31949</v>
+        <v>108.70246</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>83.12680999999999</v>
+        <v>75.44619</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>445.10619</v>
+        <v>441.76781</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>189.60962</v>
+        <v>151.70892</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>653.34337</v>
@@ -1994,52 +2030,62 @@
         <v>277.72825</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>440.79208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>343.16728</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1257.46</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>295.85769</v>
+        <v>318.37824</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>415.72233</v>
+        <v>427.409</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1815.53458</v>
+        <v>3295.0565</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1108.68098</v>
+        <v>3387.58214</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1190.20059</v>
+        <v>844.35725</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4192.4821</v>
+        <v>4042.25045</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6967.66418</v>
+        <v>5917.64176</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3766.5242</v>
+        <v>3528.81425</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8302.877619999999</v>
+        <v>7609.57068</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>19882.70606</v>
+        <v>19796.24767</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>20071.59988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>12665.08663</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>51178.524</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>14.12967</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>24.005</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>2.75529</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2447.43844</v>
+        <v>2447.61601</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2345.21879</v>
+        <v>2345.48442</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2646.41749</v>
+        <v>2646.606670000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5267.18399</v>
+        <v>1839.68916</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2735.34311</v>
+        <v>2642.01763</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1836.89942</v>
+        <v>1735.63059</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3628.45639</v>
+        <v>1912.07738</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7853.477690000001</v>
+        <v>7727.33818</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8576.315189999999</v>
+        <v>8618.264070000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15704.36577</v>
+        <v>15704.34246</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15677.6631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>15722.02125</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>19344.371</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1530.94665</v>
+        <v>1807.93769</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1003.54695</v>
+        <v>1051.83609</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2668.37666</v>
+        <v>3206.9104</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3505.84764</v>
+        <v>7229.90087</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3374.51917</v>
+        <v>3323.12801</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>7756.0057</v>
+        <v>6515.795679999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10849.61846</v>
+        <v>8924.242199999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10321.88972</v>
+        <v>10112.25832</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>15781.95051</v>
+        <v>14080.17532</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>22408.60155</v>
+        <v>22347.13036</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>31844.78115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>22854.23423</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>34392.452</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>174.61183</v>
+        <v>176.08183</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>35.20822</v>
@@ -2222,7 +2288,7 @@
         <v>162.05814</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>255.87469</v>
+        <v>254.81623</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>119.05729</v>
@@ -2230,38 +2296,43 @@
       <c r="M37" s="48" t="n">
         <v>191.4818</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>213.743</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>661.60799</v>
+        <v>935.4688599999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>109.74949</v>
+        <v>156.64764</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1061.65068</v>
+        <v>1246.30446</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>497.24045</v>
+        <v>516.81037</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>1503.20748</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>785.9709399999999</v>
+        <v>490.30575</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1739.42902</v>
+        <v>1157.4918</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2583.16546</v>
+        <v>2497.39206</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4465.08779</v>
+        <v>3812.79829</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>2927.54312</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>9474.408700000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>5110.528</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>60.4438</v>
@@ -2291,7 +2367,7 @@
         <v>9.896190000000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>852.85554</v>
+        <v>0.0052</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>7.97808</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>32.55715</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5.062</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>195.53081</v>
+        <v>197.06544</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>404.41274</v>
+        <v>405.70402</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1041.55748</v>
+        <v>1397.61548</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1496.37196</v>
+        <v>5203.84382</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1235.51791</v>
+        <v>1184.88244</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4721.31079</v>
+        <v>4631.90011</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6476.193630000001</v>
+        <v>5944.99649</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3786.40662</v>
+        <v>3692.32674</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7664.27871</v>
+        <v>6617.1537</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>16270.91906</v>
+        <v>16209.44787</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>20587.94768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11597.40016</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>27440.01</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>11.92408</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>14.83244</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>29.817</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>426.82814</v>
+        <v>426.95368</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>412.18188</v>
+        <v>412.2815900000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>428.65081</v>
+        <v>426.47277</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1014.54845</v>
+        <v>1011.5599</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>502.13334</v>
+        <v>501.37765</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1309.4625</v>
+        <v>1307.17869</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1589.26834</v>
+        <v>777.02644</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3570.5631</v>
+        <v>3540.78498</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3395.56702</v>
+        <v>3394.2648</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>3069.89935</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1543.55338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1543.55398</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1593.292</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3911.53614</v>
+        <v>4216.48986</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3577.6022</v>
+        <v>3590.75512</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5741.35212</v>
+        <v>5518.34648</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6002.22386</v>
+        <v>5377.852859999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5966.23574</v>
+        <v>5068.46181</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6590.43194</v>
+        <v>6310.94549</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10422.15344</v>
+        <v>10075.89428</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13266.80971</v>
+        <v>13107.70627</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>19223.72073</v>
+        <v>17754.47898</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>22175.2824</v>
+        <v>21482.74869</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>22991.10788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>21861.12903</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>21623.146</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3778.27345</v>
+        <v>4083.22717</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3470.6897</v>
+        <v>3483.84262</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5667.538959999999</v>
+        <v>5444.53332</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5885.24263</v>
+        <v>5260.87163</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5888.64056</v>
+        <v>4990.86663</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6395.597690000001</v>
+        <v>6116.11124</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10006.54234</v>
+        <v>9660.28318</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>12876.44715</v>
+        <v>12717.34371</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>18777.18704</v>
+        <v>17336.10715</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>21727.38496</v>
+        <v>21034.85125</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>22944.47192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>21814.49307</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>21559.259</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>133.26269</v>
@@ -2573,7 +2684,7 @@
         <v>390.36256</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>446.53369</v>
+        <v>418.3718299999999</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>447.89744</v>
@@ -2581,110 +2692,125 @@
       <c r="M46" s="48" t="n">
         <v>46.63596</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>63.887</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>39980.84798</v>
+        <v>39702.33626</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>27667.19334</v>
+        <v>27030.89165</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>38658.51352</v>
+        <v>38860.48531</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>28264.04857</v>
+        <v>23879.36033</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>33814.54568</v>
+        <v>33819.08591</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>38910.68242</v>
+        <v>36956.99007</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>34730.03785</v>
+        <v>45784.10255</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>43318.80474</v>
+        <v>43325.2096</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>6760.12691</v>
+        <v>8587.682929999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>19311.10747</v>
+        <v>20125.05086</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>662.3945599999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-5274.983810000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>52509.215</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3023.82555</v>
+        <v>3049.31954</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4362.37097</v>
+        <v>4376.11232</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5843.66871</v>
+        <v>5820.38922</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4638.65153</v>
+        <v>4028.56249</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5095.10193</v>
+        <v>4704.02444</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8800.24813</v>
+        <v>6353.33065</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10649.58923</v>
+        <v>8560.10678</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>19516.04728</v>
+        <v>16528.79248</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>20950.71391</v>
+        <v>18573.65151</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>27210.22656</v>
+        <v>21665.142</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>21885.33173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>22255.14439</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>23848.851</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>29.11279</v>
+        <v>32.67489</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>113.14457</v>
+        <v>113.32717</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>199.69332</v>
+        <v>200.41689</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>110.49091</v>
+        <v>124.51998</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>109.99225</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>312.37459</v>
+        <v>310.43272</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>103.06186</v>
+        <v>93.84186</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>128.32779</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>259.40654</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>75.803</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2994.71276</v>
+        <v>3016.64465</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4249.2264</v>
+        <v>4262.785150000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5643.97539</v>
+        <v>5619.972330000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4528.160620000001</v>
+        <v>3904.04251</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4985.10968</v>
+        <v>4594.032190000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8487.873540000001</v>
+        <v>6042.89793</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10546.52737</v>
+        <v>8466.26492</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>19387.71949</v>
+        <v>16400.46469</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>20877.49933</v>
+        <v>18500.43693</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>27088.6306</v>
+        <v>21543.54604</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>21625.92519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>21995.73785</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>23773.048</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4277.037780000001</v>
+        <v>4309.49016</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5148.7013</v>
+        <v>5163.52562</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>34914.40369000001</v>
+        <v>34443.39979</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>6163.05701</v>
+        <v>5594.874489999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4310.44947</v>
+        <v>4200.681189999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>24561.35609</v>
+        <v>17917.21605</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13054.42985</v>
+        <v>7647.60827</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>33398.01891</v>
+        <v>29659.6978</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>15538.14672</v>
+        <v>13941.26598</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>20586.12447999999</v>
+        <v>14941.95648</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>49326.82007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>32706.84026</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>33288.282</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>257.51348</v>
@@ -2792,13 +2933,13 @@
         <v>67.65356</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>31.18962</v>
+        <v>6.21197</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4.487640000000001</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>29.4988</v>
+        <v>16.6</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>5.10429</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>68.49231</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>70.432</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>202.98319</v>
+        <v>209.11518</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>283.90333</v>
+        <v>287.1358</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>538.9060999999999</v>
+        <v>540.12374</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>287.1319</v>
+        <v>259.01753</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>257.22965</v>
+        <v>254.54417</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>296.6253</v>
+        <v>275.25089</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>429.22375</v>
+        <v>304.18786</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>466.12469</v>
+        <v>89.67657</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>700.7089999999999</v>
+        <v>517.29448</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>929.94309</v>
+        <v>864.91916</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2969.11709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2827.18162</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5971.086</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3816.54111</v>
+        <v>3842.8615</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4817.78154</v>
+        <v>4829.37339</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>34307.84403</v>
+        <v>33835.62249</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5844.735489999999</v>
+        <v>5329.644989999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4048.73218</v>
+        <v>3946.13702</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>24235.23199</v>
+        <v>17625.36516</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12620.10181</v>
+        <v>7338.31612</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>32931.89422</v>
+        <v>29570.02123</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>14832.61378</v>
+        <v>13419.14756</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>19537.72864</v>
+        <v>13958.58457</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>46289.21067</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>29811.16633</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>27246.764</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>38727.63575</v>
+        <v>38442.16564</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>26880.86301</v>
+        <v>26243.47835</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>9587.778540000001</v>
+        <v>10237.47474</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>26739.64309</v>
+        <v>22313.04833</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>34599.19814</v>
+        <v>34322.42916000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>23149.57446</v>
+        <v>25393.10467</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>32325.19723</v>
+        <v>46696.60106</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>29436.83311</v>
+        <v>30194.30428</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>12172.6941</v>
+        <v>13220.06846</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>25935.20955</v>
+        <v>26848.23638</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-26779.09378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-15726.67968</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>43069.784</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7280.85909</v>
+        <v>7235.025439999999</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>7237.28814</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>9636.35831</v>
+        <v>9448.09691</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7905.34164</v>
+        <v>6742.73042</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>10349.40928</v>
+        <v>9829.54927</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>9556.28973</v>
+        <v>8545.388279999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14563.76358</v>
+        <v>13590.46803</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13017.57504</v>
+        <v>12131.39449</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>14870.32341</v>
+        <v>14448.46589</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16423.37176</v>
+        <v>15338.22682</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>15972.95617</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15340.74405</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>25267.352</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>31446.77666</v>
+        <v>31207.1402</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>19643.57487</v>
+        <v>19006.19021</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-48.57977000000002</v>
+        <v>789.3778300000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>18834.30145</v>
+        <v>15570.31791</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>24249.78886</v>
+        <v>24492.87989</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>13593.28473</v>
+        <v>16847.71639</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>17761.43365</v>
+        <v>33106.13303</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>16419.25807</v>
+        <v>18062.90979</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-2697.629310000003</v>
+        <v>-1228.39743</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>9511.83779</v>
+        <v>11510.00956</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-42752.04995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-31067.42372999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>17802.432</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>439</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>